--- a/data/trans_orig/Q4504_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q4504_R-Estudios-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>145986</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>125500</v>
+        <v>123941</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>169035</v>
+        <v>169619</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1416201487599416</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1217466234892335</v>
+        <v>0.1202347562206701</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1639799306358677</v>
+        <v>0.1645469697425247</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>184</v>
@@ -764,19 +764,19 @@
         <v>190845</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>165547</v>
+        <v>165517</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>217907</v>
+        <v>217659</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1452208668507302</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1259705551525966</v>
+        <v>0.1259478007202398</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.165813245785366</v>
+        <v>0.1656242941187122</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>328</v>
@@ -785,19 +785,19 @@
         <v>336831</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>303146</v>
+        <v>302178</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>372736</v>
+        <v>371759</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1436380449170797</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.129273251905774</v>
+        <v>0.1288606606036598</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1589490879310947</v>
+        <v>0.1585325126831536</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>133049</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>113779</v>
+        <v>111544</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>154690</v>
+        <v>153592</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1290704773667129</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1103762543157767</v>
+        <v>0.1082083213333779</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1500636163331052</v>
+        <v>0.1489987283131543</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>125</v>
@@ -835,19 +835,19 @@
         <v>128436</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>108521</v>
+        <v>106542</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>152673</v>
+        <v>149960</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09773126159605983</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08257709915870712</v>
+        <v>0.08107187619936437</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1161738649695344</v>
+        <v>0.11411015877638</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>256</v>
@@ -856,19 +856,19 @@
         <v>261485</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>234203</v>
+        <v>232029</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>293233</v>
+        <v>292397</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1115075131254683</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0998733038193632</v>
+        <v>0.09894606393673049</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1250462032961202</v>
+        <v>0.124689754705213</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>207591</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>182138</v>
+        <v>184729</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>235046</v>
+        <v>235248</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2013829951057511</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1766907579346658</v>
+        <v>0.1792044950494435</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2280170934210002</v>
+        <v>0.2282126355608902</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>218</v>
@@ -906,19 +906,19 @@
         <v>215163</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>191721</v>
+        <v>188255</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>244434</v>
+        <v>240127</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.163724696594864</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1458874119652369</v>
+        <v>0.1432499921626504</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1859979631692084</v>
+        <v>0.1827210982427133</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>421</v>
@@ -927,19 +927,19 @@
         <v>422754</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>386025</v>
+        <v>386697</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>462202</v>
+        <v>456244</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.180278722587478</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.164616106049516</v>
+        <v>0.1649027560789302</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1971008664679326</v>
+        <v>0.1945604204932089</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>87878</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>72308</v>
+        <v>71400</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>107293</v>
+        <v>106072</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08524982004769947</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07014542327735133</v>
+        <v>0.06926511734280121</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.104084742165518</v>
+        <v>0.1029002973825845</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>135</v>
@@ -977,19 +977,19 @@
         <v>133788</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>111373</v>
+        <v>114792</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>155861</v>
+        <v>158638</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1018039893211856</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08474770144273953</v>
+        <v>0.08734899092087553</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1186003767965505</v>
+        <v>0.1207129668782356</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>227</v>
@@ -998,19 +998,19 @@
         <v>221666</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>192342</v>
+        <v>193920</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>250046</v>
+        <v>246925</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09452702357191795</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08202237695973442</v>
+        <v>0.08269497251782464</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1066295614680816</v>
+        <v>0.1052984831559079</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>456323</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>423989</v>
+        <v>422869</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>484784</v>
+        <v>484761</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4426765587198948</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4113097452091775</v>
+        <v>0.410223075998696</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4702862209843265</v>
+        <v>0.4702645206448548</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>628</v>
@@ -1048,19 +1048,19 @@
         <v>645941</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>613320</v>
+        <v>610503</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>682733</v>
+        <v>679704</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4915191856371605</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4666966072230087</v>
+        <v>0.4645528213269959</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5195152901795607</v>
+        <v>0.517210642560498</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1095</v>
@@ -1069,19 +1069,19 @@
         <v>1102264</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1051497</v>
+        <v>1056126</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1149041</v>
+        <v>1152243</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.470048695798056</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4483997390268501</v>
+        <v>0.4503736660531295</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.48999626342955</v>
+        <v>0.491361535038333</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>258280</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>227978</v>
+        <v>230212</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>287830</v>
+        <v>290550</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1527059398749886</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1347897253654304</v>
+        <v>0.1361106960322941</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1701767122448968</v>
+        <v>0.1717852091858722</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>276</v>
@@ -1194,19 +1194,19 @@
         <v>286205</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>256132</v>
+        <v>255543</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>318978</v>
+        <v>319403</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1806558593621548</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.161673691338536</v>
+        <v>0.1613019893914275</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2013428903193256</v>
+        <v>0.2016111182430412</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>518</v>
@@ -1215,19 +1215,19 @@
         <v>544485</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>501333</v>
+        <v>501410</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>587329</v>
+        <v>590302</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1662239556920515</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1530502733210302</v>
+        <v>0.153073807730119</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1793037358895818</v>
+        <v>0.1802111400195445</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>400989</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>370068</v>
+        <v>365727</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>439250</v>
+        <v>435971</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2370812998486442</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2187992352745023</v>
+        <v>0.2162327092100297</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2597026732790242</v>
+        <v>0.257764133707591</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>363</v>
@@ -1265,19 +1265,19 @@
         <v>368565</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>334432</v>
+        <v>337993</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>401017</v>
+        <v>404859</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2326425690116351</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2110977526908834</v>
+        <v>0.2133451019629074</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2531268149553582</v>
+        <v>0.2555519953230591</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>762</v>
@@ -1286,19 +1286,19 @@
         <v>769554</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>718520</v>
+        <v>723568</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>817158</v>
+        <v>821654</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.23493450176252</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2193544529659017</v>
+        <v>0.2208956532205208</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2494674919968307</v>
+        <v>0.2508397824143833</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>578244</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>539079</v>
+        <v>539595</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>618157</v>
+        <v>620646</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3418812757061078</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3187258399153936</v>
+        <v>0.3190308956489777</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3654797521751674</v>
+        <v>0.3669511735629157</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>501</v>
@@ -1336,19 +1336,19 @@
         <v>510306</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>475895</v>
+        <v>475670</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>548150</v>
+        <v>547380</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3221114103507495</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3003902786626438</v>
+        <v>0.300248468259004</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3459989628902054</v>
+        <v>0.3455126577606515</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1069</v>
@@ -1357,19 +1357,19 @@
         <v>1088550</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1031144</v>
+        <v>1035108</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1139406</v>
+        <v>1142440</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3323195539738628</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3147943520279088</v>
+        <v>0.3160047057807586</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3478451840468115</v>
+        <v>0.3487716298724874</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>137457</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>116158</v>
+        <v>117830</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>161494</v>
+        <v>162909</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08127013902624464</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06867736095338939</v>
+        <v>0.06966615319841472</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09548178967864818</v>
+        <v>0.0963186086153907</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>122</v>
@@ -1407,19 +1407,19 @@
         <v>125819</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>104993</v>
+        <v>104273</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>151397</v>
+        <v>146625</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07941824100436153</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06627311721652009</v>
+        <v>0.06581811072993604</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09556361953245129</v>
+        <v>0.09255117635652974</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>255</v>
@@ -1428,19 +1428,19 @@
         <v>263275</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>233097</v>
+        <v>237508</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>293189</v>
+        <v>299091</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0803744660793906</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07116147454802234</v>
+        <v>0.07250812786947364</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08950653091141797</v>
+        <v>0.09130834256449688</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>316388</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>283759</v>
+        <v>286334</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>349350</v>
+        <v>351950</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1870613455440148</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1677699774578578</v>
+        <v>0.1692926292546302</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.206549785212353</v>
+        <v>0.2080873454421256</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>289</v>
@@ -1478,19 +1478,19 @@
         <v>293359</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>264986</v>
+        <v>262627</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>327575</v>
+        <v>322804</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1851719202710991</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.16726254899723</v>
+        <v>0.1657735532882122</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2067694461400872</v>
+        <v>0.203758034890046</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>594</v>
@@ -1499,19 +1499,19 @@
         <v>609747</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>567590</v>
+        <v>567133</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>654582</v>
+        <v>655845</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1861475224921752</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1732775143959611</v>
+        <v>0.1731381571144331</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1998352332397115</v>
+        <v>0.2002205348402299</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>134680</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>116704</v>
+        <v>114462</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>158898</v>
+        <v>155609</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2442466327891506</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.21164642728217</v>
+        <v>0.2075810615565438</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2881680122528401</v>
+        <v>0.282202292446834</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>113</v>
@@ -1624,19 +1624,19 @@
         <v>121173</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>100378</v>
+        <v>101163</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>139898</v>
+        <v>141173</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2543448085987444</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2106967183004157</v>
+        <v>0.212344297751459</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2936491997107462</v>
+        <v>0.2963247283696926</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>240</v>
@@ -1645,19 +1645,19 @@
         <v>255852</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>228502</v>
+        <v>229714</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>283958</v>
+        <v>290120</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2489273069018806</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2223168353054835</v>
+        <v>0.2234958893117977</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2762716416718894</v>
+        <v>0.2822676765426323</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>164977</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>142626</v>
+        <v>143119</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>188354</v>
+        <v>186007</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2991918331046997</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.25865864046714</v>
+        <v>0.2595526406658331</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3415872215187347</v>
+        <v>0.3373308551161064</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>125</v>
@@ -1695,19 +1695,19 @@
         <v>132502</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>113207</v>
+        <v>112657</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>152688</v>
+        <v>154087</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2781258292852533</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2376231490524139</v>
+        <v>0.2364702822987877</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.320495893882471</v>
+        <v>0.3234331733357648</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>288</v>
@@ -1716,19 +1716,19 @@
         <v>297479</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>268547</v>
+        <v>269396</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>327937</v>
+        <v>326569</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2894273864763616</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2612787083040644</v>
+        <v>0.2621041875276091</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3190607067155832</v>
+        <v>0.3177293508028703</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>155859</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>135956</v>
+        <v>134601</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>179661</v>
+        <v>178498</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2826567499356556</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2465618069370187</v>
+        <v>0.2441044306612935</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3258215805774162</v>
+        <v>0.3237139786715978</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>135</v>
@@ -1766,19 +1766,19 @@
         <v>140121</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>121574</v>
+        <v>119817</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>160449</v>
+        <v>160244</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2941163371500976</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2551862838089942</v>
+        <v>0.2514981880776186</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3367870075403972</v>
+        <v>0.3363567038868278</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>283</v>
@@ -1787,19 +1787,19 @@
         <v>295980</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>267269</v>
+        <v>265737</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>326318</v>
+        <v>323967</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2879684611029588</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2600351823018473</v>
+        <v>0.2585439792481257</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3174857750755833</v>
+        <v>0.3151977983430421</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>34646</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>23566</v>
+        <v>24059</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>49542</v>
+        <v>49356</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06283229851971678</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04273744233992056</v>
+        <v>0.04363104537643091</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08984609745581322</v>
+        <v>0.08950935403608189</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>17</v>
@@ -1837,19 +1837,19 @@
         <v>18586</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>11178</v>
+        <v>11434</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>29163</v>
+        <v>28628</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03901278066151324</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.023463026827575</v>
+        <v>0.02400101145796547</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06121297753229973</v>
+        <v>0.06009073020507238</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>46</v>
@@ -1858,19 +1858,19 @@
         <v>53232</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>38945</v>
+        <v>39191</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>71871</v>
+        <v>70552</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05179155188202407</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03789057899342985</v>
+        <v>0.03813056481220726</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06992612719463275</v>
+        <v>0.06864266851557572</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>61246</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>46483</v>
+        <v>48122</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>75930</v>
+        <v>76752</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1110724856507773</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.08429911567722885</v>
+        <v>0.08727179494026771</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1377025033580637</v>
+        <v>0.1391930409707942</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>62</v>
@@ -1908,19 +1908,19 @@
         <v>64030</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>48534</v>
+        <v>50422</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>79983</v>
+        <v>79917</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1344002443043914</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1018749351113274</v>
+        <v>0.1058374084902584</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1678859919526304</v>
+        <v>0.1677473918539134</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>122</v>
@@ -1929,19 +1929,19 @@
         <v>125276</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>106906</v>
+        <v>106396</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>150218</v>
+        <v>146238</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1218852936367749</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1040124132262883</v>
+        <v>0.1035158356460545</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1461521145343413</v>
+        <v>0.1422796133544361</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>538946</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>493207</v>
+        <v>497650</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>585137</v>
+        <v>584619</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1646343429862602</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1506623959640617</v>
+        <v>0.1520195665891612</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1787446296210097</v>
+        <v>0.1785864470509761</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>573</v>
@@ -2054,19 +2054,19 @@
         <v>598223</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>551506</v>
+        <v>552866</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>640401</v>
+        <v>641057</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1772597150113147</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1634170545988724</v>
+        <v>0.1638200389919868</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1897576831616617</v>
+        <v>0.189952036538208</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1086</v>
@@ -2075,19 +2075,19 @@
         <v>1137169</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1073009</v>
+        <v>1081305</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1202181</v>
+        <v>1205856</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.17104316203509</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1613928857028223</v>
+        <v>0.162640628267027</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.180821722234839</v>
+        <v>0.1813745638805718</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>699015</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>654235</v>
+        <v>651895</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>745577</v>
+        <v>744415</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2135315655955177</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1998524352929617</v>
+        <v>0.1991375546098659</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2277549912145411</v>
+        <v>0.2274000544981993</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>613</v>
@@ -2125,19 +2125,19 @@
         <v>629503</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>588206</v>
+        <v>587722</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>679890</v>
+        <v>677428</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1865283480379165</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1742917212018835</v>
+        <v>0.1741483287074751</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2014584640586563</v>
+        <v>0.2007290196185448</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1306</v>
@@ -2146,19 +2146,19 @@
         <v>1328518</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1261865</v>
+        <v>1266827</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1388380</v>
+        <v>1398619</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1998243469314321</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1897989762882079</v>
+        <v>0.1905452000985041</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2088282313159887</v>
+        <v>0.2103683508142682</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>941694</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>887937</v>
+        <v>891015</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>994143</v>
+        <v>994129</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2876636855012787</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.271242328991928</v>
+        <v>0.2721826881450262</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.303685770985393</v>
+        <v>0.3036814559788273</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>854</v>
@@ -2196,19 +2196,19 @@
         <v>865589</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>814609</v>
+        <v>817275</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>918157</v>
+        <v>916881</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2564831653994213</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2413772389163388</v>
+        <v>0.2421672316419511</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2720596914688882</v>
+        <v>0.271681344445668</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1773</v>
@@ -2217,19 +2217,19 @@
         <v>1807283</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1738665</v>
+        <v>1733034</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1881904</v>
+        <v>1878748</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2718360084407809</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.261515133184835</v>
+        <v>0.2606681113836883</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2830598992853187</v>
+        <v>0.2825851174573193</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>259981</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>230240</v>
+        <v>228589</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>292714</v>
+        <v>291146</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07941761500489396</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07033267861131454</v>
+        <v>0.06982813243014381</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08941669641593165</v>
+        <v>0.08893783391211622</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>274</v>
@@ -2267,19 +2267,19 @@
         <v>278193</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>247744</v>
+        <v>248237</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>311215</v>
+        <v>310843</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08243145639437158</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07340901281700817</v>
+        <v>0.073555355684101</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09221629063709896</v>
+        <v>0.09210612798457236</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>528</v>
@@ -2288,19 +2288,19 @@
         <v>538174</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>491187</v>
+        <v>497383</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>582111</v>
+        <v>582144</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08094748391241652</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.07388010983874295</v>
+        <v>0.07481215764990927</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08755609965993812</v>
+        <v>0.08756104186625385</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>833957</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>782822</v>
+        <v>786951</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>887269</v>
+        <v>880013</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2547527909120494</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2391325677152694</v>
+        <v>0.2403938753001612</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2710383277379343</v>
+        <v>0.268821895803565</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>979</v>
@@ -2338,19 +2338,19 @@
         <v>1003330</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>952820</v>
+        <v>951719</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1058658</v>
+        <v>1054788</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.297297315156976</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2823304767812121</v>
+        <v>0.2820043790247586</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3136915017433088</v>
+        <v>0.3125446415242165</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1811</v>
@@ -2359,19 +2359,19 @@
         <v>1837287</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1766154</v>
+        <v>1763131</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1914324</v>
+        <v>1905916</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2763489986802805</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2656497779222571</v>
+        <v>0.2651950322568905</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2879361565293871</v>
+        <v>0.2866715569589028</v>
       </c>
     </row>
     <row r="27">
@@ -2702,19 +2702,19 @@
         <v>191393</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>165953</v>
+        <v>168455</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>216751</v>
+        <v>217244</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1967619518919174</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1706077861302703</v>
+        <v>0.1731806008206725</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2228313633653693</v>
+        <v>0.2233379810141194</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>208</v>
@@ -2723,19 +2723,19 @@
         <v>223547</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>196682</v>
+        <v>196167</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>252962</v>
+        <v>251270</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1673790202246702</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.147264027205377</v>
+        <v>0.1468784877442622</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1894028572059995</v>
+        <v>0.1881366352230648</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>384</v>
@@ -2744,19 +2744,19 @@
         <v>414940</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>378827</v>
+        <v>382939</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>454028</v>
+        <v>461340</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1797610053912104</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1641160167966462</v>
+        <v>0.1658972658452318</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1966948835759331</v>
+        <v>0.1998623729891596</v>
       </c>
     </row>
     <row r="5">
@@ -2773,19 +2773,19 @@
         <v>136911</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>115634</v>
+        <v>113759</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>163063</v>
+        <v>160706</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1407517983645377</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1188773358858938</v>
+        <v>0.1169505548251675</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1676376573649468</v>
+        <v>0.1652138290795821</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>182</v>
@@ -2794,19 +2794,19 @@
         <v>192719</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>170174</v>
+        <v>168768</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>220622</v>
+        <v>221261</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1442970248797754</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1274163762711231</v>
+        <v>0.1263637041905164</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1651892127611332</v>
+        <v>0.1656672191894709</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>308</v>
@@ -2815,19 +2815,19 @@
         <v>329631</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>296972</v>
+        <v>294375</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>369926</v>
+        <v>367556</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1428030642831672</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1286548672517126</v>
+        <v>0.1275296879847463</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1602597144248998</v>
+        <v>0.1592332072291047</v>
       </c>
     </row>
     <row r="6">
@@ -2844,19 +2844,19 @@
         <v>157216</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>134617</v>
+        <v>133419</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>181963</v>
+        <v>181681</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1616262323914523</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1383928757339623</v>
+        <v>0.1371618713804364</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1870675524342761</v>
+        <v>0.1867777813328383</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>204</v>
@@ -2865,19 +2865,19 @@
         <v>215475</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>186881</v>
+        <v>190875</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>242423</v>
+        <v>243749</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1613352468061992</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1399259526387448</v>
+        <v>0.142916419082133</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1815125654444632</v>
+        <v>0.1825051765670196</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>351</v>
@@ -2886,19 +2886,19 @@
         <v>372691</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>336737</v>
+        <v>335964</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>404748</v>
+        <v>408229</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1614578683077255</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1458817903705293</v>
+        <v>0.1455468393261023</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1753454274899177</v>
+        <v>0.1768535375932094</v>
       </c>
     </row>
     <row r="7">
@@ -2915,19 +2915,19 @@
         <v>39419</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>28838</v>
+        <v>27495</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>53694</v>
+        <v>52481</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04052490668161618</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02964654812273169</v>
+        <v>0.0282663311579761</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05520032184627643</v>
+        <v>0.05395325325967064</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>68</v>
@@ -2936,19 +2936,19 @@
         <v>71435</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>55730</v>
+        <v>56498</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>88112</v>
+        <v>90595</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05348612383728335</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04172724396362009</v>
+        <v>0.04230250162024075</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06597318845899171</v>
+        <v>0.06783234198467604</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>106</v>
@@ -2957,19 +2957,19 @@
         <v>110854</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>91123</v>
+        <v>91527</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>133643</v>
+        <v>133147</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04802425909283824</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03947641811421645</v>
+        <v>0.03965151239078631</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05789688031621008</v>
+        <v>0.05768205582209853</v>
       </c>
     </row>
     <row r="8">
@@ -2986,19 +2986,19 @@
         <v>447774</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>418018</v>
+        <v>417843</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>483754</v>
+        <v>479701</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4603351106704763</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4297442478964466</v>
+        <v>0.4295642454625003</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4973237525285293</v>
+        <v>0.4931576490505573</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>583</v>
@@ -3007,19 +3007,19 @@
         <v>632398</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>596871</v>
+        <v>596349</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>671670</v>
+        <v>667747</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4735025842520719</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4469021994836117</v>
+        <v>0.4465111325943232</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5029073476721572</v>
+        <v>0.4999703212624836</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1002</v>
@@ -3028,19 +3028,19 @@
         <v>1080172</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1037865</v>
+        <v>1032889</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1135422</v>
+        <v>1133159</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4679538029250587</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4496252657738504</v>
+        <v>0.4474698482739259</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4918893357096433</v>
+        <v>0.4909088418630693</v>
       </c>
     </row>
     <row r="9">
@@ -3132,19 +3132,19 @@
         <v>528448</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>490904</v>
+        <v>485848</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>567377</v>
+        <v>567187</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2700072224300656</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2508243279277895</v>
+        <v>0.2482412353028934</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2898980432163406</v>
+        <v>0.2898006396698734</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>437</v>
@@ -3153,19 +3153,19 @@
         <v>472642</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>433403</v>
+        <v>433003</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>511296</v>
+        <v>510433</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2700150500330848</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2475985336868987</v>
+        <v>0.2473699001993304</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2920980855414155</v>
+        <v>0.2916048572279996</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>941</v>
@@ -3174,19 +3174,19 @@
         <v>1001089</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>951932</v>
+        <v>948935</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1057583</v>
+        <v>1053344</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.270010917998802</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2567525014624176</v>
+        <v>0.2559441237196164</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2852482784219075</v>
+        <v>0.2841050179276017</v>
       </c>
     </row>
     <row r="11">
@@ -3203,19 +3203,19 @@
         <v>450929</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>414795</v>
+        <v>414090</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>490703</v>
+        <v>492093</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2303997230004851</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2119372263802305</v>
+        <v>0.2115766947675591</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.250722039477264</v>
+        <v>0.2514318419853974</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>449</v>
@@ -3224,19 +3224,19 @@
         <v>478701</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>441189</v>
+        <v>443082</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>516661</v>
+        <v>517497</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2734768263305452</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2520462236881672</v>
+        <v>0.2531279334163443</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2951626885993772</v>
+        <v>0.2956406291512584</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>880</v>
@@ -3245,19 +3245,19 @@
         <v>929631</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>881246</v>
+        <v>872748</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>988998</v>
+        <v>985318</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2507372894213125</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2376872135084273</v>
+        <v>0.2353951109985956</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2667496048485689</v>
+        <v>0.2657572526555631</v>
       </c>
     </row>
     <row r="12">
@@ -3274,19 +3274,19 @@
         <v>399833</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>366596</v>
+        <v>364614</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>436857</v>
+        <v>438473</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2042924605068568</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1873102734040711</v>
+        <v>0.1862973094335695</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.223209334176825</v>
+        <v>0.2240350413915414</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>327</v>
@@ -3295,19 +3295,19 @@
         <v>349612</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>314886</v>
+        <v>318377</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>383108</v>
+        <v>387002</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1997296993271877</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1798911948487308</v>
+        <v>0.1818852990545291</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2188654563287026</v>
+        <v>0.2210900855542499</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>709</v>
@@ -3316,19 +3316,19 @@
         <v>749445</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>702982</v>
+        <v>699218</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>802482</v>
+        <v>800719</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2021382892330159</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1896063916856654</v>
+        <v>0.1885909777144928</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2164431049054094</v>
+        <v>0.2159676031083063</v>
       </c>
     </row>
     <row r="13">
@@ -3345,19 +3345,19 @@
         <v>93041</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>73754</v>
+        <v>75440</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>112278</v>
+        <v>113755</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04753878289093582</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03768419257672524</v>
+        <v>0.03854577353526157</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0573679240414873</v>
+        <v>0.05812228293660717</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>65</v>
@@ -3366,19 +3366,19 @@
         <v>69525</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>52027</v>
+        <v>53956</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>86262</v>
+        <v>89081</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03971911522235563</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02972239222660169</v>
+        <v>0.03082441504106291</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04928073931146573</v>
+        <v>0.05089083670176817</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>153</v>
@@ -3387,19 +3387,19 @@
         <v>162566</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>139998</v>
+        <v>139206</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>189423</v>
+        <v>188542</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04384696059313592</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0377598857712734</v>
+        <v>0.03754631364995879</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05109075866102546</v>
+        <v>0.0508529883877926</v>
       </c>
     </row>
     <row r="14">
@@ -3416,19 +3416,19 @@
         <v>484910</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>444706</v>
+        <v>447518</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>526193</v>
+        <v>525456</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2477618111716565</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2272196874525909</v>
+        <v>0.228656593609622</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2688553885324483</v>
+        <v>0.2684784746029102</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>350</v>
@@ -3437,19 +3437,19 @@
         <v>379946</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>347071</v>
+        <v>345429</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>419685</v>
+        <v>415316</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2170593090868267</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1982781416148984</v>
+        <v>0.197340032782357</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2397617749381417</v>
+        <v>0.237265326698317</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>795</v>
@@ -3458,19 +3458,19 @@
         <v>864856</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>815052</v>
+        <v>816911</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>915358</v>
+        <v>920146</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2332665427537337</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2198334393812776</v>
+        <v>0.2203347816549498</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2468876645916676</v>
+        <v>0.2481791507982948</v>
       </c>
     </row>
     <row r="15">
@@ -3562,19 +3562,19 @@
         <v>157305</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>136969</v>
+        <v>136303</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>178915</v>
+        <v>179753</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3269145312469661</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2846514499714313</v>
+        <v>0.2832667925713119</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3718256317409795</v>
+        <v>0.3735657199076008</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>161</v>
@@ -3583,19 +3583,19 @@
         <v>180013</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>159004</v>
+        <v>159374</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>202654</v>
+        <v>201930</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3957590891420251</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3495705557632676</v>
+        <v>0.3503834159827739</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4455348603515299</v>
+        <v>0.4439430188515834</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>302</v>
@@ -3604,19 +3604,19 @@
         <v>337318</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>308672</v>
+        <v>306852</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>370873</v>
+        <v>370839</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3603686795454061</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3297645482247812</v>
+        <v>0.3278201062835979</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3962162020741472</v>
+        <v>0.3961793849746982</v>
       </c>
     </row>
     <row r="17">
@@ -3633,19 +3633,19 @@
         <v>156135</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>134077</v>
+        <v>136664</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>181002</v>
+        <v>180643</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.324483640033102</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2786413223133177</v>
+        <v>0.2840181049890927</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3761628010757912</v>
+        <v>0.3754161058027805</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>117</v>
@@ -3654,19 +3654,19 @@
         <v>128259</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>108386</v>
+        <v>110519</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>149986</v>
+        <v>149281</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2819773430412404</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.238286369771794</v>
+        <v>0.2429756672671693</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3297438521997842</v>
+        <v>0.3281948251158779</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>260</v>
@@ -3675,19 +3675,19 @@
         <v>284394</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>256776</v>
+        <v>251725</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>315589</v>
+        <v>312563</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3038282388414658</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2743228767360534</v>
+        <v>0.2689258690376497</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3371541466585825</v>
+        <v>0.3339219797148303</v>
       </c>
     </row>
     <row r="18">
@@ -3704,19 +3704,19 @@
         <v>93153</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>74956</v>
+        <v>76663</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>111061</v>
+        <v>113469</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1935917937483373</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1557742881085081</v>
+        <v>0.1593220237610069</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2308092032994775</v>
+        <v>0.2358135627608517</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>61</v>
@@ -3725,19 +3725,19 @@
         <v>71014</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>56549</v>
+        <v>54639</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>88363</v>
+        <v>89842</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1561242300498476</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1243241023168468</v>
+        <v>0.120123526366441</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1942662778084084</v>
+        <v>0.1975182665069938</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>147</v>
@@ -3746,19 +3746,19 @@
         <v>164167</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>140250</v>
+        <v>139848</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>190419</v>
+        <v>191079</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1753849017197593</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1498343249059555</v>
+        <v>0.149404360360093</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2034309572592325</v>
+        <v>0.2041360284176906</v>
       </c>
     </row>
     <row r="19">
@@ -3775,19 +3775,19 @@
         <v>10308</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5162</v>
+        <v>5043</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>19591</v>
+        <v>20308</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02142137687195108</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01072819251074748</v>
+        <v>0.01048056638426472</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0407137262854311</v>
+        <v>0.0422039218308088</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>9</v>
@@ -3796,19 +3796,19 @@
         <v>9198</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4874</v>
+        <v>4188</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>17510</v>
+        <v>16720</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02022287280957377</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01071561723796547</v>
+        <v>0.009206441673020836</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03849615881092729</v>
+        <v>0.03675942398586085</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>18</v>
@@ -3817,19 +3817,19 @@
         <v>19506</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>12198</v>
+        <v>12264</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>31586</v>
+        <v>30549</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02083897887470966</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01303206973597747</v>
+        <v>0.01310178179066337</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03374392299045346</v>
+        <v>0.03263671175665381</v>
       </c>
     </row>
     <row r="20">
@@ -3846,19 +3846,19 @@
         <v>64280</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>49511</v>
+        <v>49406</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>81316</v>
+        <v>82081</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1335886580996436</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1028937523077858</v>
+        <v>0.1026767811197524</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1689917643074945</v>
+        <v>0.1705823007424376</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>62</v>
@@ -3867,19 +3867,19 @@
         <v>66371</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>52072</v>
+        <v>51217</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>83045</v>
+        <v>82957</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1459164649573131</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1144808772869357</v>
+        <v>0.1126016060733829</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1825745790865107</v>
+        <v>0.1823815463041001</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>121</v>
@@ -3888,19 +3888,19 @@
         <v>130651</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>109417</v>
+        <v>110581</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>155530</v>
+        <v>153187</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1395792010186591</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1168933497059723</v>
+        <v>0.1181377923925997</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1661579364552689</v>
+        <v>0.1636543367302995</v>
       </c>
     </row>
     <row r="21">
@@ -3992,19 +3992,19 @@
         <v>877146</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>820453</v>
+        <v>825099</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>931519</v>
+        <v>933179</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2571478736558193</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2405274951711623</v>
+        <v>0.2418894929293058</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2730880630081242</v>
+        <v>0.2735748179075548</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>806</v>
@@ -4013,19 +4013,19 @@
         <v>876202</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>826046</v>
+        <v>821887</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>930841</v>
+        <v>929958</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2474547737364476</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2332899438758126</v>
+        <v>0.2321152501598896</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2628857722961966</v>
+        <v>0.262636383263463</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1627</v>
@@ -4034,19 +4034,19 @@
         <v>1753348</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1675624</v>
+        <v>1678746</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1831594</v>
+        <v>1830768</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2522108334323891</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2410306307000811</v>
+        <v>0.2414796639688116</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2634662097674044</v>
+        <v>0.2633473846089491</v>
       </c>
     </row>
     <row r="23">
@@ -4063,19 +4063,19 @@
         <v>743976</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>698301</v>
+        <v>693876</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>794602</v>
+        <v>794536</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2181072367127616</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2047167633735161</v>
+        <v>0.2034196953538884</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.232949010684127</v>
+        <v>0.2329296183913251</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>748</v>
@@ -4084,19 +4084,19 @@
         <v>799679</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>745403</v>
+        <v>746142</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>853552</v>
+        <v>853868</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.225843515929793</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2105148489995148</v>
+        <v>0.2107234874527071</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2410580884428216</v>
+        <v>0.2411472879802574</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1448</v>
@@ -4105,19 +4105,19 @@
         <v>1543656</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1473766</v>
+        <v>1474420</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1615734</v>
+        <v>1618687</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2220475986188469</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2119943802328188</v>
+        <v>0.2120883609956926</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2324157141578573</v>
+        <v>0.2328404674832223</v>
       </c>
     </row>
     <row r="24">
@@ -4134,19 +4134,19 @@
         <v>650202</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>600762</v>
+        <v>604596</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>699701</v>
+        <v>696763</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1906160523956374</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1761220115902093</v>
+        <v>0.1772460039510636</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2051273637185594</v>
+        <v>0.2042659566901175</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>592</v>
@@ -4155,19 +4155,19 @@
         <v>636101</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>590084</v>
+        <v>589099</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>682681</v>
+        <v>685476</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1796461906511404</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1666502241984473</v>
+        <v>0.1663719133910924</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1928011901749377</v>
+        <v>0.1935903447715808</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1207</v>
@@ -4176,19 +4176,19 @@
         <v>1286304</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1218171</v>
+        <v>1230409</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1351609</v>
+        <v>1358088</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1850287120062319</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1752281837301372</v>
+        <v>0.1769885000392984</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1944226647090234</v>
+        <v>0.1953545564275099</v>
       </c>
     </row>
     <row r="25">
@@ -4205,19 +4205,19 @@
         <v>142768</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>120867</v>
+        <v>118462</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>168521</v>
+        <v>167581</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04185441339668623</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03543393404620139</v>
+        <v>0.03472896152109377</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04940439675473474</v>
+        <v>0.04912869433333272</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>142</v>
@@ -4226,19 +4226,19 @@
         <v>150159</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>127222</v>
+        <v>126946</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>175147</v>
+        <v>176335</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04240741781544166</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03592968491791578</v>
+        <v>0.03585171771734837</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04946450638771719</v>
+        <v>0.0498002099065427</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>277</v>
@@ -4247,19 +4247,19 @@
         <v>292926</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>261136</v>
+        <v>261291</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>332524</v>
+        <v>329761</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04213607819761063</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03756318438267655</v>
+        <v>0.03758546853564042</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04783208038600806</v>
+        <v>0.04743462013374616</v>
       </c>
     </row>
     <row r="26">
@@ -4276,19 +4276,19 @@
         <v>996965</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>942669</v>
+        <v>941832</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1050585</v>
+        <v>1051784</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2922744238390954</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2763567561593665</v>
+        <v>0.2761113355010779</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3079940827391842</v>
+        <v>0.3083456026000796</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>995</v>
@@ -4297,19 +4297,19 @@
         <v>1078715</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1028821</v>
+        <v>1025544</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1139732</v>
+        <v>1138915</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3046481018671774</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2905571229412992</v>
+        <v>0.289631628958488</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3218802340218451</v>
+        <v>0.3216496854844013</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1918</v>
@@ -4318,19 +4318,19 @@
         <v>2075680</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1997560</v>
+        <v>1995570</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2160488</v>
+        <v>2155240</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2985767777449215</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2873396394319487</v>
+        <v>0.2870534337163441</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.310776054168578</v>
+        <v>0.3100210983713395</v>
       </c>
     </row>
     <row r="27">
@@ -4661,19 +4661,19 @@
         <v>77943</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>62996</v>
+        <v>63907</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>97518</v>
+        <v>95934</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1036054430268556</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08373689877029036</v>
+        <v>0.08494778544348618</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1296248285056869</v>
+        <v>0.1275193412048698</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>104</v>
@@ -4682,19 +4682,19 @@
         <v>115934</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>96540</v>
+        <v>96940</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>138092</v>
+        <v>136987</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1170016501323519</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09742946012498059</v>
+        <v>0.09783277270739968</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1393644000258217</v>
+        <v>0.1382488837925005</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>182</v>
@@ -4703,19 +4703,19 @@
         <v>193877</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>168010</v>
+        <v>167563</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>224572</v>
+        <v>220728</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1112202215177205</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09638120580941358</v>
+        <v>0.09612510676093586</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1288292403893896</v>
+        <v>0.1266236961566814</v>
       </c>
     </row>
     <row r="5">
@@ -4732,19 +4732,19 @@
         <v>159850</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>138064</v>
+        <v>136057</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>184054</v>
+        <v>180919</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.21247914685755</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1835212914517672</v>
+        <v>0.180853230884186</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2446523851831989</v>
+        <v>0.2404859884938022</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>199</v>
@@ -4753,19 +4753,19 @@
         <v>220952</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>195001</v>
+        <v>195503</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>251098</v>
+        <v>248144</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2229876142682209</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1967976388077007</v>
+        <v>0.1973044041336545</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2534107537818178</v>
+        <v>0.2504296000747532</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>360</v>
@@ -4774,19 +4774,19 @@
         <v>380802</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>345685</v>
+        <v>349077</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>417670</v>
+        <v>417649</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2184524534047368</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1983073204646576</v>
+        <v>0.200253079089945</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2396025502051294</v>
+        <v>0.2395906303348223</v>
       </c>
     </row>
     <row r="6">
@@ -4803,19 +4803,19 @@
         <v>106376</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>88281</v>
+        <v>89481</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>125686</v>
+        <v>128438</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1413993197963419</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1173467846520175</v>
+        <v>0.1189419897692904</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1670675409960628</v>
+        <v>0.1707258130441079</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>113</v>
@@ -4824,19 +4824,19 @@
         <v>121996</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>101652</v>
+        <v>101654</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>144344</v>
+        <v>142837</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1231199311644145</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1025881378578722</v>
+        <v>0.102590740971417</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1456741022445454</v>
+        <v>0.1441528947122669</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>220</v>
@@ -4845,19 +4845,19 @@
         <v>228372</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>198452</v>
+        <v>200962</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>259641</v>
+        <v>257528</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.131008804459844</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.113844869258674</v>
+        <v>0.1152849367052577</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1489470008090687</v>
+        <v>0.1477348270955362</v>
       </c>
     </row>
     <row r="7">
@@ -4874,19 +4874,19 @@
         <v>53715</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>40992</v>
+        <v>40033</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>68592</v>
+        <v>68707</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07140018836191031</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05448802184853486</v>
+        <v>0.05321416615131945</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09117498598673095</v>
+        <v>0.09132873329717381</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>63</v>
@@ -4895,19 +4895,19 @@
         <v>66868</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>52083</v>
+        <v>51547</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>83387</v>
+        <v>84439</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06748364761831661</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05256291618695077</v>
+        <v>0.0520219754490275</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08415549545143963</v>
+        <v>0.08521716607839135</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>118</v>
@@ -4916,19 +4916,19 @@
         <v>120583</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>99805</v>
+        <v>99461</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>143655</v>
+        <v>142864</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06917391715110789</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05725464304098121</v>
+        <v>0.05705748123269417</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08240961473172836</v>
+        <v>0.08195594727356549</v>
       </c>
     </row>
     <row r="8">
@@ -4945,19 +4945,19 @@
         <v>354424</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>329651</v>
+        <v>329147</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>382095</v>
+        <v>383393</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4711159019573423</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4381864843870326</v>
+        <v>0.4375175224568552</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5078976766044324</v>
+        <v>0.5096230279994511</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>410</v>
@@ -4966,19 +4966,19 @@
         <v>465122</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>431254</v>
+        <v>430006</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>498301</v>
+        <v>496387</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4694071568166961</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4352263258815606</v>
+        <v>0.4339675343195337</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5028909099955094</v>
+        <v>0.5009602280008907</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>769</v>
@@ -4987,19 +4987,19 @@
         <v>819546</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>776526</v>
+        <v>779965</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>862262</v>
+        <v>864459</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4701446034665908</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4454654942278345</v>
+        <v>0.4474383576902368</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4946489559786443</v>
+        <v>0.4959093064758061</v>
       </c>
     </row>
     <row r="9">
@@ -5091,19 +5091,19 @@
         <v>468014</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>432461</v>
+        <v>429765</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>506027</v>
+        <v>508275</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2262945346471778</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.209103707552223</v>
+        <v>0.2078003269490002</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2446747232328464</v>
+        <v>0.2457614075168562</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>505</v>
@@ -5112,19 +5112,19 @@
         <v>525010</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>486879</v>
+        <v>488310</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>566473</v>
+        <v>565201</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2649427607739253</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2457000808418419</v>
+        <v>0.2464222146112059</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2858663855281721</v>
+        <v>0.285224955405504</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>944</v>
@@ -5133,19 +5133,19 @@
         <v>993025</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>937839</v>
+        <v>939699</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1043579</v>
+        <v>1049428</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2452055887896945</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2315787443214608</v>
+        <v>0.2320379984357444</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.257688840304122</v>
+        <v>0.259133076253071</v>
       </c>
     </row>
     <row r="11">
@@ -5162,19 +5162,19 @@
         <v>718290</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>674536</v>
+        <v>678739</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>764594</v>
+        <v>762158</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3473078116630602</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3261521015830761</v>
+        <v>0.3281844173641514</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3696971935501604</v>
+        <v>0.3685191497115493</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>694</v>
@@ -5183,19 +5183,19 @@
         <v>719579</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>678388</v>
+        <v>679301</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>767143</v>
+        <v>762238</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3631304500068099</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3423437517246641</v>
+        <v>0.342804624972395</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3871335399259019</v>
+        <v>0.3846580929657151</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1373</v>
@@ -5204,19 +5204,19 @@
         <v>1437868</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1380099</v>
+        <v>1371026</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1503959</v>
+        <v>1497092</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.355050023929538</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3407851492119566</v>
+        <v>0.3385446891880723</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3713695496079523</v>
+        <v>0.3696739283833276</v>
       </c>
     </row>
     <row r="12">
@@ -5233,19 +5233,19 @@
         <v>356091</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>322453</v>
+        <v>323247</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>390868</v>
+        <v>388822</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1721773979815926</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.155912506343821</v>
+        <v>0.1562965211687407</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1889929786065238</v>
+        <v>0.1880033700065946</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>334</v>
@@ -5254,19 +5254,19 @@
         <v>344095</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>309531</v>
+        <v>311397</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>378725</v>
+        <v>378396</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1736449316654501</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1562027605895535</v>
+        <v>0.1571441886859006</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1911209664852417</v>
+        <v>0.1909549801156796</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>669</v>
@@ -5275,19 +5275,19 @@
         <v>700186</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>649852</v>
+        <v>653832</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>745937</v>
+        <v>745785</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.172895480329289</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1604666574355149</v>
+        <v>0.1614493934194274</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1841928180198372</v>
+        <v>0.1841551675021032</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>92548</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>74714</v>
+        <v>74467</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>112578</v>
+        <v>110850</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04474889624956752</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03612592962551459</v>
+        <v>0.03600638506873621</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05443374157724528</v>
+        <v>0.05359828230299401</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>80</v>
@@ -5325,19 +5325,19 @@
         <v>84088</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>67672</v>
+        <v>66103</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>104580</v>
+        <v>103130</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04243434219434322</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03415031243691394</v>
+        <v>0.03335862550668959</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05277565407997747</v>
+        <v>0.0520439940406343</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>168</v>
@@ -5346,19 +5346,19 @@
         <v>176636</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>149617</v>
+        <v>150080</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>202736</v>
+        <v>201581</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04361635637799406</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0369446965403044</v>
+        <v>0.03705884017253588</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0500612967973815</v>
+        <v>0.0497760063610739</v>
       </c>
     </row>
     <row r="14">
@@ -5375,19 +5375,19 @@
         <v>433221</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>393684</v>
+        <v>398959</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>474404</v>
+        <v>471247</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.209471359458602</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.19035417875329</v>
+        <v>0.1929049058484309</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2293843459212809</v>
+        <v>0.2278575308215547</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>289</v>
@@ -5396,19 +5396,19 @@
         <v>308827</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>274990</v>
+        <v>278076</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>341044</v>
+        <v>345075</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1558475153594716</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1387716231185804</v>
+        <v>0.1403293189193391</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1721055957407547</v>
+        <v>0.174139666571496</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>692</v>
@@ -5417,19 +5417,19 @@
         <v>742048</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>694664</v>
+        <v>695246</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>788294</v>
+        <v>797800</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1832325505734845</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.171532095635089</v>
+        <v>0.1716756763906446</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1946517683303956</v>
+        <v>0.1969991355735594</v>
       </c>
     </row>
     <row r="15">
@@ -5521,19 +5521,19 @@
         <v>174551</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>152470</v>
+        <v>152938</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>197270</v>
+        <v>198659</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3203084177486026</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2797879116596393</v>
+        <v>0.2806474516413979</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3619970835081101</v>
+        <v>0.3645475635584596</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>213</v>
@@ -5542,19 +5542,19 @@
         <v>231707</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>208409</v>
+        <v>206705</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>252673</v>
+        <v>255219</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4219444708136666</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3795182262351904</v>
+        <v>0.3764156039423831</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4601242552313907</v>
+        <v>0.4647615358480061</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>372</v>
@@ -5563,19 +5563,19 @@
         <v>406258</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>374300</v>
+        <v>374616</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>439752</v>
+        <v>439544</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.371321188248696</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.34211123783939</v>
+        <v>0.3424000227638421</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.401934734911127</v>
+        <v>0.4017450384173999</v>
       </c>
     </row>
     <row r="17">
@@ -5592,19 +5592,19 @@
         <v>181938</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>160404</v>
+        <v>157667</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>204519</v>
+        <v>205118</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3338634702850137</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2943479278495756</v>
+        <v>0.2893254091972573</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3752996950145749</v>
+        <v>0.3763990110387992</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>172</v>
@@ -5613,19 +5613,19 @@
         <v>172327</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>150402</v>
+        <v>151426</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>195276</v>
+        <v>195549</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3138120911735042</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2738860875159142</v>
+        <v>0.2757517483762266</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3556025187870007</v>
+        <v>0.3560999590494794</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>342</v>
@@ -5634,19 +5634,19 @@
         <v>354265</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>325747</v>
+        <v>325855</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>388456</v>
+        <v>386184</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3237993604541155</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2977338821440585</v>
+        <v>0.2978328175598893</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3550497097713685</v>
+        <v>0.3529736250143518</v>
       </c>
     </row>
     <row r="18">
@@ -5663,19 +5663,19 @@
         <v>94589</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>76412</v>
+        <v>77329</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>112970</v>
+        <v>115491</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1735744819365072</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1402194379034309</v>
+        <v>0.141900943629347</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2073037479450161</v>
+        <v>0.2119293988207658</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>63</v>
@@ -5684,19 +5684,19 @@
         <v>62415</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>49083</v>
+        <v>48078</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>78463</v>
+        <v>78303</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1136588310359886</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.08938165180016169</v>
+        <v>0.08755163523083073</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1428831919379312</v>
+        <v>0.1425924195055277</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>149</v>
@@ -5705,19 +5705,19 @@
         <v>157004</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>134289</v>
+        <v>133759</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>183011</v>
+        <v>180686</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1435018526226236</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1227407218076746</v>
+        <v>0.1222557634372393</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.167272730572894</v>
+        <v>0.1651471539346948</v>
       </c>
     </row>
     <row r="19">
@@ -5734,19 +5734,19 @@
         <v>20671</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>12671</v>
+        <v>13182</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>32493</v>
+        <v>32235</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03793255755302221</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0232525975678337</v>
+        <v>0.02418954423008299</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05962502182432285</v>
+        <v>0.05915181683360214</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>20</v>
@@ -5755,19 +5755,19 @@
         <v>21105</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>12647</v>
+        <v>12914</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>30802</v>
+        <v>32807</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03843202209216788</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02303037930976646</v>
+        <v>0.02351683088068049</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05609105207892876</v>
+        <v>0.05974313695614754</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>38</v>
@@ -5776,19 +5776,19 @@
         <v>41776</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>29568</v>
+        <v>29578</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>56363</v>
+        <v>56679</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03818324684230484</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02702537720501452</v>
+        <v>0.02703415483823943</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05151601140790397</v>
+        <v>0.05180489781428511</v>
       </c>
     </row>
     <row r="20">
@@ -5805,19 +5805,19 @@
         <v>73198</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>57769</v>
+        <v>59015</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>91090</v>
+        <v>92742</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1343210724768543</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1060084801445133</v>
+        <v>0.1082940006928416</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.167153440500861</v>
+        <v>0.170184277245477</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>58</v>
@@ -5826,19 +5826,19 @@
         <v>61587</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>48411</v>
+        <v>46877</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>78797</v>
+        <v>77697</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1121525848846727</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08815803342321582</v>
+        <v>0.08536471260997111</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1434911946937562</v>
+        <v>0.1414881261312852</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>124</v>
@@ -5847,19 +5847,19 @@
         <v>134785</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>113911</v>
+        <v>113178</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>158574</v>
+        <v>161028</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.12319435183226</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1041151884554649</v>
+        <v>0.1034453848370464</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1449372971542029</v>
+        <v>0.1471801434202772</v>
       </c>
     </row>
     <row r="21">
@@ -5951,19 +5951,19 @@
         <v>720509</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>672325</v>
+        <v>673958</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>768963</v>
+        <v>770057</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2140918160747265</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1997744377428345</v>
+        <v>0.2002597905372331</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2284894782934834</v>
+        <v>0.2288147276876069</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>822</v>
@@ -5972,19 +5972,19 @@
         <v>872651</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>818777</v>
+        <v>817352</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>929850</v>
+        <v>928025</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2477987112625456</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2325006840449917</v>
+        <v>0.2320959431455827</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2640410221112255</v>
+        <v>0.2635229488786935</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1498</v>
@@ -5993,19 +5993,19 @@
         <v>1593159</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1527386</v>
+        <v>1521508</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1662906</v>
+        <v>1668762</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2313274858149663</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2217771240613385</v>
+        <v>0.2209236371823413</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2414547569189556</v>
+        <v>0.242304994782721</v>
       </c>
     </row>
     <row r="23">
@@ -6022,19 +6022,19 @@
         <v>1060077</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1007525</v>
+        <v>1011362</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1118184</v>
+        <v>1117729</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3149911666697429</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2993757198261163</v>
+        <v>0.3005158111158562</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3322570718767733</v>
+        <v>0.3321217910661204</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1065</v>
@@ -6043,19 +6043,19 @@
         <v>1112858</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1055736</v>
+        <v>1057048</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1166874</v>
+        <v>1170556</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3160081946234511</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2997876762529716</v>
+        <v>0.3001602487300951</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3313465656566021</v>
+        <v>0.3323922458427326</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2075</v>
@@ -6064,19 +6064,19 @@
         <v>2172935</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2091958</v>
+        <v>2098111</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2253281</v>
+        <v>2254786</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3155112133198135</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3037533493583837</v>
+        <v>0.3046467689961379</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3271774109728093</v>
+        <v>0.3273959850751504</v>
       </c>
     </row>
     <row r="24">
@@ -6093,19 +6093,19 @@
         <v>557056</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>515196</v>
+        <v>516656</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>600277</v>
+        <v>602845</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1655234759713981</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1530851557353976</v>
+        <v>0.1535191254470915</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1783663020555204</v>
+        <v>0.1791293726392885</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>510</v>
@@ -6114,19 +6114,19 @@
         <v>528505</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>483945</v>
+        <v>487665</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>573530</v>
+        <v>573233</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1500748741757355</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1374214546614237</v>
+        <v>0.1384778498415568</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1628601512042977</v>
+        <v>0.1627756601703232</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1038</v>
@@ -6135,19 +6135,19 @@
         <v>1085561</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1023387</v>
+        <v>1024521</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1151745</v>
+        <v>1148012</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.157623994366378</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1485963174725024</v>
+        <v>0.148760934103826</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1672339723143151</v>
+        <v>0.1666919078683377</v>
       </c>
     </row>
     <row r="25">
@@ -6164,19 +6164,19 @@
         <v>166934</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>145113</v>
+        <v>142134</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>198189</v>
+        <v>195209</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04960279837235473</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04311889757668195</v>
+        <v>0.04223365838454495</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05888997080260338</v>
+        <v>0.05800431463000217</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>163</v>
@@ -6185,19 +6185,19 @@
         <v>172060</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>147354</v>
+        <v>146213</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>199498</v>
+        <v>200579</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0488583366650911</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04184269663341034</v>
+        <v>0.04151883732761243</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05664962639035865</v>
+        <v>0.05695646931479314</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>324</v>
@@ -6206,19 +6206,19 @@
         <v>338994</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>305762</v>
+        <v>304397</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>378912</v>
+        <v>374920</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04922212563316729</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04439681467772853</v>
+        <v>0.0441985421175616</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05501824058672843</v>
+        <v>0.05443861656466992</v>
       </c>
     </row>
     <row r="26">
@@ -6235,19 +6235,19 @@
         <v>860843</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>809102</v>
+        <v>812877</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>912973</v>
+        <v>913881</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2557907429117778</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2404165544967738</v>
+        <v>0.2415381028758661</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2712807053646885</v>
+        <v>0.2715504577571038</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>757</v>
@@ -6256,19 +6256,19 @@
         <v>835537</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>785850</v>
+        <v>784618</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>884299</v>
+        <v>889330</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2372598832731767</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2231508072713692</v>
+        <v>0.2228010019336964</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2511062569089834</v>
+        <v>0.2525350477431884</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1585</v>
@@ -6277,19 +6277,19 @@
         <v>1696380</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1626496</v>
+        <v>1624601</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1766260</v>
+        <v>1766593</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2463151808656749</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2361680337119144</v>
+        <v>0.2358927800009646</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2564617656224095</v>
+        <v>0.2565100966466523</v>
       </c>
     </row>
     <row r="27">
